--- a/Display/TestLogs/concurrent.xlsx
+++ b/Display/TestLogs/concurrent.xlsx
@@ -130,10 +130,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -146,10 +146,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -157,14 +154,26 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>CPU Usage During the Concurrent Use</a:t>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>CPU Usage</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>r Test</a:t>
+              <a:rPr lang="en-US" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> by Seconds</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -183,10 +192,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -212,7 +218,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="98500"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -223,11 +231,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="98500"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="98500"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1300,13 +1312,13 @@
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:tx>
-            <c:v>Graf %CPU</c:v>
+            <c:v>Grafana %CPU</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1318,14 +1330,14 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:ln>
@@ -2417,7 +2429,9 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent1"/>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="88500"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -2428,11 +2442,15 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent1"/>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="88500"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent1"/>
+                        <a:schemeClr val="dk1">
+                          <a:tint val="88500"/>
+                        </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
                     <a:effectLst/>
@@ -3524,7 +3542,9 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent2"/>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="55000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -3535,11 +3555,15 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent2"/>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="55000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent2"/>
+                        <a:schemeClr val="dk1">
+                          <a:tint val="55000"/>
+                        </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
                     <a:effectLst/>
@@ -4631,7 +4655,9 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent3"/>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="75000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -4642,11 +4668,15 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent3"/>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="75000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent3"/>
+                        <a:schemeClr val="dk1">
+                          <a:tint val="75000"/>
+                        </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
                     <a:effectLst/>
@@ -5738,7 +5768,9 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent5"/>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="30000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -5749,11 +5781,15 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent5"/>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="30000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent5"/>
+                        <a:schemeClr val="dk1">
+                          <a:tint val="30000"/>
+                        </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
                     <a:effectLst/>
@@ -6845,7 +6881,9 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent6"/>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="60000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -6856,11 +6894,15 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent6"/>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="60000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent6"/>
+                        <a:schemeClr val="dk1">
+                          <a:tint val="60000"/>
+                        </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
                     <a:effectLst/>
@@ -7952,8 +7994,8 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="60000"/>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="80000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:round/>
@@ -7965,14 +8007,14 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="60000"/>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="80000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="60000"/>
+                        <a:schemeClr val="dk1">
+                          <a:tint val="80000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -9065,8 +9107,8 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="60000"/>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="88500"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:round/>
@@ -9078,14 +9120,14 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="60000"/>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="88500"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent2">
-                          <a:lumMod val="60000"/>
+                        <a:schemeClr val="dk1">
+                          <a:tint val="88500"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -10178,8 +10220,8 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent4">
-                        <a:lumMod val="60000"/>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:round/>
@@ -10191,14 +10233,14 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent4">
-                        <a:lumMod val="60000"/>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent4">
-                          <a:lumMod val="60000"/>
+                        <a:schemeClr val="dk1">
+                          <a:tint val="75000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -11288,8 +11330,8 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent5">
-                        <a:lumMod val="60000"/>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="98500"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:round/>
@@ -11301,14 +11343,14 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent5">
-                        <a:lumMod val="60000"/>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="98500"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent5">
-                          <a:lumMod val="60000"/>
+                        <a:schemeClr val="dk1">
+                          <a:tint val="98500"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -12398,8 +12440,8 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent6">
-                        <a:lumMod val="60000"/>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="30000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:round/>
@@ -12411,14 +12453,14 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent6">
-                        <a:lumMod val="60000"/>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="30000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent6">
-                          <a:lumMod val="60000"/>
+                        <a:schemeClr val="dk1">
+                          <a:tint val="30000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -13508,9 +13550,8 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="80000"/>
-                        <a:lumOff val="20000"/>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="60000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:round/>
@@ -13522,16 +13563,14 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="80000"/>
-                        <a:lumOff val="20000"/>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="60000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="80000"/>
-                          <a:lumOff val="20000"/>
+                        <a:schemeClr val="dk1">
+                          <a:tint val="60000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -14621,9 +14660,8 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="80000"/>
-                        <a:lumOff val="20000"/>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="80000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:round/>
@@ -14635,16 +14673,14 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="80000"/>
-                        <a:lumOff val="20000"/>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="80000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent2">
-                          <a:lumMod val="80000"/>
-                          <a:lumOff val="20000"/>
+                        <a:schemeClr val="dk1">
+                          <a:tint val="80000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -15734,9 +15770,8 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent3">
-                        <a:lumMod val="80000"/>
-                        <a:lumOff val="20000"/>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="88500"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:round/>
@@ -15748,16 +15783,14 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent3">
-                        <a:lumMod val="80000"/>
-                        <a:lumOff val="20000"/>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="88500"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent3">
-                          <a:lumMod val="80000"/>
-                          <a:lumOff val="20000"/>
+                        <a:schemeClr val="dk1">
+                          <a:tint val="88500"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -16874,10 +16907,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -16885,7 +16915,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Time (seconds)</a:t>
                 </a:r>
               </a:p>
@@ -16906,10 +16940,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -16991,10 +17022,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -17002,14 +17030,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>%</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> Usage of one CPU Core</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -17028,10 +17068,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -17066,10 +17103,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -17108,10 +17142,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -17162,41 +17193,28 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -18060,7 +18078,7 @@
   <dimension ref="A1:P176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
